--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="15135"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18720" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Floor Inventory" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Width</t>
   </si>
@@ -51,12 +51,6 @@
     <t>8x8</t>
   </si>
   <si>
-    <t>Females</t>
-  </si>
-  <si>
-    <t>Males</t>
-  </si>
-  <si>
     <t>Edging</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
   </si>
   <si>
     <t>8x.5</t>
-  </si>
-  <si>
-    <t>All Edges are 0.125" wide</t>
   </si>
   <si>
     <t>All Edges are 0.25" wide</t>
@@ -126,16 +117,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +432,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,28 +441,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2">
         <v>1</v>
       </c>
@@ -484,214 +471,146 @@
       <c r="F2">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>4</v>
-      </c>
-      <c r="M9" s="4">
-        <v>8</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
